--- a/functionPoints/exportYoutrack.xlsx
+++ b/functionPoints/exportYoutrack.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\SEProject\documentation\functionPoints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24161CDA-0163-4CDF-8278-BFCF59DB1FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84528E2B-6128-423D-8975-A30F57D0D5D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="252">
   <si>
     <t>Issue Id</t>
   </si>
@@ -82,15 +83,6 @@
     <t>Catching UI</t>
   </si>
   <si>
-    <t>LIT-37</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Epic</t>
-  </si>
-  <si>
     <t>ToDo</t>
   </si>
   <si>
@@ -121,12 +113,6 @@
     <t>- implement the pseudo random algrothm from LoL to our CE</t>
   </si>
   <si>
-    <t>LIT-36</t>
-  </si>
-  <si>
-    <t>Calculation Engine</t>
-  </si>
-  <si>
     <t>LIT-114</t>
   </si>
   <si>
@@ -143,15 +129,6 @@
   </si>
   <si>
     <t>Inventory</t>
-  </si>
-  <si>
-    <t>LIT-4</t>
-  </si>
-  <si>
-    <t>Documentation Backlog</t>
-  </si>
-  <si>
-    <t>No status</t>
   </si>
   <si>
     <t>LIT-103</t>
@@ -229,21 +206,6 @@
 - Team with Stats
 - Skills
 - etc.</t>
-  </si>
-  <si>
-    <t>LIT-84</t>
-  </si>
-  <si>
-    <t>Game Content</t>
-  </si>
-  <si>
-    <t>Create the actual content of the game</t>
-  </si>
-  <si>
-    <t>LIT-2</t>
-  </si>
-  <si>
-    <t>Datastructure</t>
   </si>
   <si>
     <t>LIT-94</t>
@@ -483,12 +445,6 @@
     <t>Blog Post Week 7</t>
   </si>
   <si>
-    <t>LIT-52</t>
-  </si>
-  <si>
-    <t>Use Cases</t>
-  </si>
-  <si>
     <t>LIT-60</t>
   </si>
   <si>
@@ -594,12 +550,6 @@
     <t>Battle Overlay</t>
   </si>
   <si>
-    <t>LIT-27</t>
-  </si>
-  <si>
-    <t>Multiplayer</t>
-  </si>
-  <si>
     <t>LIT-33</t>
   </si>
   <si>
@@ -922,13 +872,19 @@
   <si>
     <t>FU</t>
   </si>
+  <si>
+    <t>FPs</t>
+  </si>
+  <si>
+    <t>Time Spent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -939,24 +895,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor theme="6" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -971,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -979,16 +923,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -996,22 +934,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1040,7 +962,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="d\ mmm\ yyyy"/>
+      <numFmt numFmtId="164" formatCode="d\ mmm\ yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d\ mmm\ yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1056,24 +994,2251 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>issues!$O$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spent Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>issues!$N$91:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>issues!$O$91:$O$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD24-46C5-BFF4-74D505167E42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1583249952"/>
+        <c:axId val="1549969184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1583249952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549969184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1549969184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1583249952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>UC Estimation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11394659738329169"/>
+                  <c:y val="6.5401534710317288E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13676166585371519"/>
+                  <c:y val="-6.9146761019092992E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="window" lastClr="FFFFFF">
+                          <a:lumMod val="75000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$5:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$5:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC1F-438A-9344-508EDF526F98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1492232592"/>
+        <c:axId val="1490460480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1492232592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490460480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1490460480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>hours spent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492232592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2924175</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61A451F-BD99-4B6C-9348-651DAF3C6B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693859</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4EA9EA-3ED9-4FA6-BC9F-7606916A645F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DD88C1B-2888-4178-B8C8-BB371FCA0DB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:M96" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:M96" xr:uid="{BBC52D60-45BB-4B79-8364-619AA8DA1860}"/>
-  <sortState ref="A2:M96">
-    <sortCondition ref="L1:L96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DD88C1B-2888-4178-B8C8-BB371FCA0DB3}" name="Tabelle1" displayName="Tabelle1" ref="A1:M89" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M89" xr:uid="{BBC52D60-45BB-4B79-8364-619AA8DA1860}"/>
+  <sortState ref="A2:M89">
+    <sortCondition ref="L1:L89"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{B5BB3221-C810-4E36-98A1-1FFDB05AA70A}" name="Issue Id" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8C71FD7D-7000-4B6F-9940-71B990377F9D}" name="Summary" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{0BFA7AF5-9F08-45F0-871C-E0C4A2C3A815}" name="Created" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{6C09D980-B24E-4CF1-A0B2-A8D76948F358}" name="Resolved" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{71BE5282-52FE-4CDF-BABF-EE9ED57DAB58}" name="Type" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{93B5379B-19C9-4D82-BB72-F41FCA3CBD34}" name="Spent Time" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{66DF2104-3B98-48EB-B9F4-84C6190FEA3B}" name="Status" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{10E0A3CB-EA09-4628-8578-EC7D8A57FA13}" name="Estimation" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{19EF2522-4107-42E7-8535-4DBDD176EB91}" name="RUP Workflow" dataDxfId="9"/>
-    <tableColumn id="21" xr3:uid="{7403549C-A049-4502-92CD-6E99F7F39D92}" name="RUP Phase" dataDxfId="8"/>
-    <tableColumn id="22" xr3:uid="{6D3EDEDE-CAC0-43E2-89C6-1892A4A321FB}" name="Description" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{B5BB3221-C810-4E36-98A1-1FFDB05AA70A}" name="Issue Id" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8C71FD7D-7000-4B6F-9940-71B990377F9D}" name="Summary" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{0BFA7AF5-9F08-45F0-871C-E0C4A2C3A815}" name="Created" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{6C09D980-B24E-4CF1-A0B2-A8D76948F358}" name="Resolved" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{71BE5282-52FE-4CDF-BABF-EE9ED57DAB58}" name="Type" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{93B5379B-19C9-4D82-BB72-F41FCA3CBD34}" name="Spent Time" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{66DF2104-3B98-48EB-B9F4-84C6190FEA3B}" name="Status" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{10E0A3CB-EA09-4628-8578-EC7D8A57FA13}" name="Estimation" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{19EF2522-4107-42E7-8535-4DBDD176EB91}" name="RUP Workflow" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{7403549C-A049-4502-92CD-6E99F7F39D92}" name="RUP Phase" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{6D3EDEDE-CAC0-43E2-89C6-1892A4A321FB}" name="Description" dataDxfId="2"/>
     <tableColumn id="24" xr3:uid="{17AD8637-AC76-401F-B3AF-11CD3AF42077}" name="Ucs" dataDxfId="1"/>
     <tableColumn id="25" xr3:uid="{09A298B9-E5FC-40C8-9DFE-84C98EDDD65B}" name="Ucs2" dataDxfId="0"/>
   </tableColumns>
@@ -1378,10 +3543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1397,8 +3562,7 @@
     <col min="9" max="9" width="22" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1437,18 +3601,18 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C2" s="3">
         <v>44119.565072534722</v>
@@ -1463,30 +3627,30 @@
         <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1">
         <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3">
         <v>44119.565177951386</v>
@@ -1498,30 +3662,30 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1">
         <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3">
         <v>44119.565411041665</v>
@@ -1536,30 +3700,30 @@
         <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1">
         <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C5" s="3">
         <v>44119.565733981479</v>
@@ -1574,445 +3738,439 @@
         <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1">
         <v>180</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3">
-        <v>44122.875546724536</v>
+        <v>44122.876333726854</v>
       </c>
       <c r="D6" s="3">
-        <v>44139.94754134259</v>
+        <v>44139.941094942129</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1">
+        <v>300</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="1">
-        <v>621</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1140</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3">
-        <v>44122.876333726854</v>
+        <v>44122.876726967595</v>
       </c>
       <c r="D7" s="3">
-        <v>44139.941094942129</v>
+        <v>44139.941113171299</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C8" s="3">
-        <v>44122.876726967595</v>
+        <v>44122.876921805553</v>
       </c>
       <c r="D8" s="3">
-        <v>44139.941113171299</v>
+        <v>44139.941132581022</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1">
-        <v>480</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C9" s="3">
-        <v>44122.876921805553</v>
+        <v>44122.87711465278</v>
       </c>
       <c r="D9" s="3">
-        <v>44139.941132581022</v>
+        <v>44139.941152071762</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="C10" s="3">
-        <v>44122.87711465278</v>
+        <v>44122.878225729168</v>
       </c>
       <c r="D10" s="3">
-        <v>44139.941152071762</v>
+        <v>44122.896872650461</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>90</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="H10" s="1">
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3">
-        <v>44122.878225729168</v>
+        <v>44124.476912615741</v>
       </c>
       <c r="D11" s="3">
-        <v>44122.896872650461</v>
+        <v>44139.941168900463</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C12" s="3">
-        <v>44124.476912615741</v>
+        <v>44128.875411458335</v>
       </c>
       <c r="D12" s="3">
-        <v>44139.941168900463</v>
+        <v>44131.444362152775</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1">
         <v>180</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44131.436334710648</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44138.414378923611</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1">
+        <v>120</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1">
+        <v>120</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44128.875411458335</v>
-      </c>
-      <c r="D13" s="3">
-        <v>44131.444362152775</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="1">
-        <v>180</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C14" s="3">
-        <v>44131.436334710648</v>
+        <v>44131.446831145833</v>
       </c>
       <c r="D14" s="3">
-        <v>44138.414378923611</v>
+        <v>44134.492613263887</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="C15" s="3">
-        <v>44131.446831145833</v>
+        <v>44131.449441631943</v>
       </c>
       <c r="D15" s="3">
-        <v>44134.492613263887</v>
+        <v>44138.053840775465</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1">
-        <v>261</v>
+        <v>493</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3">
-        <v>44131.449441631943</v>
+        <v>44138.523156261574</v>
       </c>
       <c r="D16" s="3">
-        <v>44138.053840775465</v>
+        <v>44142.002876736115</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="1">
-        <v>493</v>
+        <v>136</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="1">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3">
-        <v>44138.523156261574</v>
+        <v>44138.52432837963</v>
       </c>
       <c r="D17" s="3">
-        <v>44142.002876736115</v>
+        <v>44142.010346539355</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>17</v>
@@ -2021,173 +4179,179 @@
         <v>12</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C18" s="3">
-        <v>44138.523672523152</v>
+        <v>44140.870806284722</v>
       </c>
       <c r="D18" s="3">
-        <v>44145.55028609954</v>
+        <v>44141.804819988429</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1">
-        <v>533</v>
+        <v>120</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="1">
-        <v>660</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3">
-        <v>44138.52432837963</v>
+        <v>44140.872256574075</v>
       </c>
       <c r="D19" s="3">
-        <v>44142.010346539355</v>
+        <v>44143.973533773147</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>151</v>
+        <v>14</v>
+      </c>
+      <c r="F19" s="1">
+        <v>270</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="H19" s="1">
+        <v>180</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C20" s="3">
-        <v>44140.870806284722</v>
+        <v>44145.54849158565</v>
       </c>
       <c r="D20" s="3">
-        <v>44141.804819988429</v>
+        <v>44148.923362581016</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="1">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="H20" s="1">
+        <v>240</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C21" s="3">
-        <v>44140.872256574075</v>
+        <v>44145.548804664351</v>
       </c>
       <c r="D21" s="3">
-        <v>44143.973533773147</v>
+        <v>44205.671633310187</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="1">
-        <v>270</v>
+        <v>1478</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H21" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3">
-        <v>44145.54849158565</v>
+        <v>44145.549388935186</v>
       </c>
       <c r="D22" s="3">
-        <v>44148.923362581016</v>
+        <v>44154.788819768517</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1">
         <v>240</v>
@@ -2196,887 +4360,885 @@
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C23" s="3">
-        <v>44145.548804664351</v>
+        <v>44145.549947453706</v>
       </c>
       <c r="D23" s="3">
-        <v>44205.671633310187</v>
+        <v>44148.92480148148</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="1">
-        <v>1478</v>
+        <v>480</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H23" s="1">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3">
-        <v>44145.549388935186</v>
+        <v>44145.886031435184</v>
       </c>
       <c r="D24" s="3">
-        <v>44154.788819768517</v>
+        <v>44145.922795856481</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3">
-        <v>44145.549947453706</v>
-      </c>
-      <c r="D25" s="3">
-        <v>44148.92480148148</v>
-      </c>
+        <v>44295.961349409721</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1">
-        <v>480</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="C26" s="3">
-        <v>44145.886031435184</v>
-      </c>
-      <c r="D26" s="3">
-        <v>44145.922795856481</v>
-      </c>
+        <v>44295.963385694442</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1">
         <v>60</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3">
-        <v>44295.961349409721</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>44295.978528969907</v>
+      </c>
+      <c r="D27" s="3">
+        <v>44308.998517430555</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="F27" s="1">
+        <v>180</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3">
-        <v>44295.963385694442</v>
+        <v>44295.978968692129</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1">
         <v>60</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3">
-        <v>44295.978528969907</v>
+        <v>44295.979473298612</v>
       </c>
       <c r="D29" s="3">
-        <v>44308.998517430555</v>
+        <v>44308.998539490742</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H29" s="1">
         <v>60</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3">
-        <v>44295.978968692129</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>44295.980063796298</v>
+      </c>
+      <c r="D30" s="3">
+        <v>44297.414491134259</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="F30" s="1">
+        <v>60</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H30" s="1">
         <v>60</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C31" s="3">
-        <v>44295.979473298612</v>
+        <v>44295.980472025461</v>
       </c>
       <c r="D31" s="3">
-        <v>44308.998539490742</v>
+        <v>44297.414468344905</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" s="1">
         <v>60</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H31" s="1">
         <v>60</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3">
-        <v>44295.980063796298</v>
+        <v>44295.980906689816</v>
       </c>
       <c r="D32" s="3">
-        <v>44297.414491134259</v>
+        <v>44297.414297488423</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F32" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H32" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3">
-        <v>44295.980472025461</v>
+        <v>44296.99183240741</v>
       </c>
       <c r="D33" s="3">
-        <v>44297.414468344905</v>
+        <v>44296.992077488423</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H33" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3">
-        <v>44295.980906689816</v>
+        <v>44298.688657708335</v>
       </c>
       <c r="D34" s="3">
-        <v>44297.414297488423</v>
+        <v>44298.688992847223</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H34" s="1">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3">
-        <v>44296.99183240741</v>
+        <v>44306.094812453703</v>
       </c>
       <c r="D35" s="3">
-        <v>44296.992077488423</v>
+        <v>44306.094878657408</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F35" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H35" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3">
-        <v>44298.688657708335</v>
-      </c>
-      <c r="D36" s="3">
-        <v>44298.688992847223</v>
-      </c>
+        <v>44308.909335428238</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="1">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
-        <v>44306.094812453703</v>
-      </c>
-      <c r="D37" s="3">
-        <v>44306.094878657408</v>
-      </c>
+        <v>44309.585016770834</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="1">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="C38" s="3">
-        <v>44308.909335428238</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>44119.563823912038</v>
+      </c>
+      <c r="D38" s="3">
+        <v>44131.419465150466</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>136</v>
+      </c>
+      <c r="F38" s="1">
+        <v>120</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H38" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="C39" s="3">
-        <v>44309.585016770834</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>44119.56408340278</v>
+      </c>
+      <c r="D39" s="3">
+        <v>44124.475296064818</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="F39" s="1">
+        <v>60</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H39" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="C40" s="3">
-        <v>44119.563823912038</v>
+        <v>44119.56429923611</v>
       </c>
       <c r="D40" s="3">
-        <v>44131.419465150466</v>
+        <v>44131.426602893516</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F40" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H40" s="1">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C41" s="3">
-        <v>44119.56408340278</v>
+        <v>44119.564410462961</v>
       </c>
       <c r="D41" s="3">
-        <v>44124.475296064818</v>
+        <v>44131.420006863424</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H41" s="1">
         <v>60</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C42" s="3">
-        <v>44119.56429923611</v>
+        <v>44131.437391111111</v>
       </c>
       <c r="D42" s="3">
-        <v>44131.426602893516</v>
+        <v>44137.836959282409</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="F42" s="1">
-        <v>360</v>
+        <v>121</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C43" s="3">
-        <v>44119.564410462961</v>
+        <v>44131.438700104169</v>
       </c>
       <c r="D43" s="3">
-        <v>44131.420006863424</v>
+        <v>44141.917856273147</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H43" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="C44" s="3">
-        <v>44131.436848726851</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>44131.444162812499</v>
+      </c>
+      <c r="D44" s="3">
+        <v>44134.744500358793</v>
+      </c>
       <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="1">
+        <v>174</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="1">
+        <v>180</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="1">
-        <v>2734</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="1">
-        <v>2520</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K44" s="2" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="C45" s="3">
-        <v>44131.437069120373</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>44139.945684699072</v>
+      </c>
+      <c r="D45" s="3">
+        <v>44141.069858900461</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1">
-        <v>2499</v>
+        <v>311</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1">
-        <v>2940</v>
+        <v>180</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="C46" s="3">
-        <v>44131.437391111111</v>
+        <v>44139.950431238423</v>
       </c>
       <c r="D46" s="3">
-        <v>44137.836959282409</v>
+        <v>44172.126441250002</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1">
         <v>180</v>
@@ -3085,115 +5247,115 @@
         <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C47" s="3">
-        <v>44131.438700104169</v>
+        <v>44139.951430717592</v>
       </c>
       <c r="D47" s="3">
-        <v>44141.917856273147</v>
+        <v>44142.002372418981</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F47" s="1">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H47" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44139.952844120373</v>
+      </c>
+      <c r="D48" s="3">
+        <v>44141.920119988426</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="1">
+        <v>60</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="1">
+        <v>120</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="3">
-        <v>44131.444162812499</v>
-      </c>
-      <c r="D48" s="3">
-        <v>44134.744500358793</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="1">
-        <v>174</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="1">
-        <v>180</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="L48" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="C49" s="3">
-        <v>44139.945684699072</v>
+        <v>44295.964622581021</v>
       </c>
       <c r="D49" s="3">
-        <v>44141.069858900461</v>
+        <v>44297.414060995368</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F49" s="1">
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H49" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>16</v>
@@ -3202,150 +5364,148 @@
         <v>17</v>
       </c>
       <c r="K49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44119.564706909725</v>
+      </c>
+      <c r="D50" s="3">
+        <v>44131.42980474537</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1">
+        <v>60</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="1">
+        <v>60</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="3">
-        <v>44139.950431238423</v>
-      </c>
-      <c r="D50" s="3">
-        <v>44172.126441250002</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="1">
-        <v>210</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="1">
+      <c r="L50" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44131.437756724539</v>
+      </c>
+      <c r="D51" s="3">
+        <v>44137.836972800927</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="1">
+        <v>48</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" s="1">
         <v>180</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="3">
-        <v>44139.951430717592</v>
-      </c>
-      <c r="D51" s="3">
-        <v>44142.002372418981</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="1">
-        <v>206</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="1">
-        <v>240</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C52" s="3">
-        <v>44139.952844120373</v>
+        <v>44139.955733298608</v>
       </c>
       <c r="D52" s="3">
-        <v>44141.920119988426</v>
+        <v>44141.982386886571</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="F52" s="1">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C53" s="3">
-        <v>44295.964622581021</v>
-      </c>
-      <c r="D53" s="3">
-        <v>44297.414060995368</v>
-      </c>
+        <v>44145.545453877312</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="1">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H53" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>16</v>
@@ -3354,27 +5514,24 @@
         <v>17</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C54" s="3">
-        <v>44119.564706909725</v>
+        <v>44119.563987476853</v>
       </c>
       <c r="D54" s="3">
-        <v>44131.42980474537</v>
+        <v>44124.475281874998</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
@@ -3383,327 +5540,341 @@
         <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H54" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44119.564925543978</v>
+      </c>
+      <c r="D55" s="3">
+        <v>44131.423130057869</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1">
+        <v>60</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="1">
+        <v>120</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C55" s="3">
-        <v>44131.437756724539</v>
-      </c>
-      <c r="D55" s="3">
-        <v>44137.836972800927</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="1">
-        <v>48</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" s="1">
-        <v>180</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44295.967106481483</v>
+      </c>
+      <c r="D56" s="3">
+        <v>44297.414914062501</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="1">
+        <v>90</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="1">
+        <v>60</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="3">
-        <v>44139.955733298608</v>
-      </c>
-      <c r="D56" s="3">
-        <v>44141.982386886571</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="1">
-        <v>83</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" s="1">
-        <v>240</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="L56" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3">
-        <v>44145.545453877312</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>44295.970084270833</v>
+      </c>
+      <c r="D57" s="3">
+        <v>44307.963154305558</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H57" s="1">
-        <v>180</v>
+        <v>660</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="C58" s="3">
-        <v>44119.563987476853</v>
+        <v>44295.970781631942</v>
       </c>
       <c r="D58" s="3">
-        <v>44124.475281874998</v>
+        <v>44307.96308966435</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F58" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H58" s="1">
         <v>120</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="C59" s="3">
-        <v>44119.564925543978</v>
+        <v>44295.972135138887</v>
       </c>
       <c r="D59" s="3">
-        <v>44131.423130057869</v>
+        <v>44299.14660078704</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F59" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H59" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3">
-        <v>44295.967106481483</v>
+        <v>44295.973565868058</v>
       </c>
       <c r="D60" s="3">
-        <v>44297.414914062501</v>
+        <v>44302.895288842592</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F60" s="1">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H60" s="1">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C61" s="3">
-        <v>44295.970084270833</v>
+        <v>44295.974316562497</v>
       </c>
       <c r="D61" s="3">
-        <v>44307.963154305558</v>
+        <v>44306.566397569448</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="F61" s="1">
+        <v>130</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H61" s="1">
-        <v>660</v>
+        <v>180</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C62" s="3">
-        <v>44295.970781631942</v>
+        <v>44295.976713645832</v>
       </c>
       <c r="D62" s="3">
-        <v>44307.96308966435</v>
+        <v>44297.414177604165</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F62" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H62" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -3714,222 +5885,213 @@
         <v>90</v>
       </c>
       <c r="C63" s="3">
-        <v>44295.972135138887</v>
+        <v>44295.977864409724</v>
       </c>
       <c r="D63" s="3">
-        <v>44299.14660078704</v>
+        <v>44297.41468263889</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F63" s="1">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H63" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="C64" s="3">
-        <v>44295.973565868058</v>
-      </c>
-      <c r="D64" s="3">
-        <v>44302.895288842592</v>
-      </c>
+        <v>44308.909875266203</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F64" s="1">
-        <v>190</v>
+        <v>720</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H64" s="1">
+        <v>720</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44119.564564432869</v>
+      </c>
+      <c r="D65" s="3">
+        <v>44124.474909780096</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1">
+        <v>60</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="1">
+        <v>120</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44131.442449884256</v>
+      </c>
+      <c r="D66" s="3">
+        <v>44135.501298958334</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="1">
+        <v>127</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="1">
         <v>180</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="3">
-        <v>44295.974316562497</v>
-      </c>
-      <c r="D65" s="3">
-        <v>44306.566397569448</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" s="1">
-        <v>130</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" s="1">
-        <v>180</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="3">
-        <v>44295.976713645832</v>
-      </c>
-      <c r="D66" s="3">
-        <v>44297.414177604165</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="1">
-        <v>240</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="1">
-        <v>240</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44139.946171724536</v>
+      </c>
+      <c r="D67" s="3">
+        <v>44141.961468379632</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="1">
+        <v>389</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="1">
+        <v>360</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="3">
-        <v>44295.977864409724</v>
-      </c>
-      <c r="D67" s="3">
-        <v>44297.41468263889</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" s="1">
-        <v>160</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" s="1">
-        <v>120</v>
-      </c>
-      <c r="I67" s="2" t="s">
+      <c r="K67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44139.948173576391</v>
+      </c>
+      <c r="D68" s="3">
+        <v>44141.918850057868</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="1">
+        <v>90</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="1">
         <v>60</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="3">
-        <v>44308.909875266203</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="1">
-        <v>720</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="1">
-        <v>720</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>16</v>
@@ -3941,221 +6103,219 @@
         <v>12</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="C69" s="3">
-        <v>44119.564564432869</v>
+        <v>44139.953906562499</v>
       </c>
       <c r="D69" s="3">
-        <v>44124.474909780096</v>
+        <v>44142.003019201387</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F69" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H69" s="1">
         <v>120</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="C70" s="3">
-        <v>44131.442449884256</v>
-      </c>
-      <c r="D70" s="3">
-        <v>44135.501298958334</v>
-      </c>
+        <v>44308.905612615737</v>
+      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" s="1">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="H70" s="1">
         <v>180</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="C71" s="3">
-        <v>44139.946171724536</v>
+        <v>44119.564496597224</v>
       </c>
       <c r="D71" s="3">
-        <v>44141.961468379632</v>
+        <v>44131.421755370371</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F71" s="1">
-        <v>389</v>
+        <v>90</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H71" s="1">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="C72" s="3">
-        <v>44139.948173576391</v>
+        <v>44131.438372858793</v>
       </c>
       <c r="D72" s="3">
-        <v>44141.918850057868</v>
+        <v>44135.627241608796</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F72" s="1">
-        <v>90</v>
+        <v>267</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H72" s="1">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="C73" s="3">
-        <v>44139.953906562499</v>
+        <v>44145.528155752312</v>
       </c>
       <c r="D73" s="3">
-        <v>44142.003019201387</v>
+        <v>44305.866803379628</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F73" s="1">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H73" s="1">
         <v>120</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C74" s="3">
-        <v>44308.905612615737</v>
+        <v>44145.528468854165</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="F74" s="1">
+        <v>160</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H74" s="1">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>17</v>
@@ -4164,941 +6324,973 @@
         <v>12</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="C75" s="3">
-        <v>44119.564496597224</v>
+        <v>44145.528949907406</v>
       </c>
       <c r="D75" s="3">
-        <v>44131.421755370371</v>
+        <v>44145.925993506942</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="1">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H75" s="1">
         <v>60</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>251</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="C76" s="3">
-        <v>44131.438372858793</v>
+        <v>44145.529194490744</v>
       </c>
       <c r="D76" s="3">
-        <v>44135.627241608796</v>
+        <v>44145.928002731482</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F76" s="1">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H76" s="1">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C77" s="3">
-        <v>44145.528155752312</v>
+        <v>44145.544963622684</v>
       </c>
       <c r="D77" s="3">
-        <v>44305.866803379628</v>
+        <v>44295.622066180556</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="1">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H77" s="1">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C78" s="3">
-        <v>44145.528468854165</v>
+        <v>44295.966249224541</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="1">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H78" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C79" s="3">
-        <v>44145.528949907406</v>
+        <v>44305.867817824073</v>
       </c>
       <c r="D79" s="3">
-        <v>44145.925993506942</v>
+        <v>44307.476854247689</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="1">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H79" s="1">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="C80" s="3">
-        <v>44145.529194490744</v>
+        <v>44119.560684756943</v>
       </c>
       <c r="D80" s="3">
-        <v>44145.928002731482</v>
+        <v>44131.429199166669</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H80" s="1">
         <v>60</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="C81" s="3">
-        <v>44145.544963622684</v>
+        <v>44119.564192164355</v>
       </c>
       <c r="D81" s="3">
-        <v>44295.622066180556</v>
+        <v>44124.47530914352</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="1">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H81" s="1">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C82" s="3">
-        <v>44295.966249224541</v>
-      </c>
-      <c r="D82" s="3"/>
+        <v>44119.564816458333</v>
+      </c>
+      <c r="D82" s="3">
+        <v>44131.427904016207</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="F82" s="1">
+        <v>60</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H82" s="1">
+        <v>60</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44295.960083020836</v>
+      </c>
+      <c r="D83" s="3">
+        <v>44297.879144583334</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="1">
+        <v>90</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" s="1">
         <v>120</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="3">
-        <v>44305.867817824073</v>
-      </c>
-      <c r="D83" s="3">
-        <v>44307.476854247689</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="1">
-        <v>160</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H83" s="1">
+      <c r="I83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="M83" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="C84" s="3">
-        <v>44119.560684756943</v>
+        <v>44295.962614259261</v>
       </c>
       <c r="D84" s="3">
-        <v>44131.429199166669</v>
+        <v>44297.879165208331</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F84" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H84" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C85" s="3">
-        <v>44119.564192164355</v>
+        <v>44119.559387349538</v>
       </c>
       <c r="D85" s="3">
-        <v>44124.47530914352</v>
+        <v>44131.42994303241</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="1">
+        <v>120</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" s="1">
         <v>60</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" s="1">
-        <v>120</v>
-      </c>
       <c r="I85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="C86" s="3">
-        <v>44119.564816458333</v>
+        <v>44119.559700231483</v>
       </c>
       <c r="D86" s="3">
-        <v>44131.427904016207</v>
+        <v>44131.430193541666</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="1">
+        <v>360</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" s="1">
+        <v>300</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="225" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="3">
+        <v>44119.5614240625</v>
+      </c>
+      <c r="D87" s="3">
+        <v>44131.428346678244</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F87" s="1">
         <v>60</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H86" s="1">
+      <c r="G87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="1">
+        <v>180</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="3">
+        <v>44119.564633263886</v>
+      </c>
+      <c r="D88" s="3">
+        <v>44131.426537777777</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1">
         <v>60</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="G88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="1">
+        <v>180</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="3">
+        <v>44131.437531875003</v>
+      </c>
+      <c r="D89" s="3">
+        <v>44139.941010879629</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="1">
+        <v>300</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N90" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L91" s="1">
+        <f>SUMIF($L$1:$L$90,M91,$F:$F)+SUMIF($M$1:$M$90,M91,$F:$F)</f>
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>248</v>
+      </c>
+      <c r="N91" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="O91" s="1">
+        <f>L91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L92" s="1">
+        <f>SUMIF($L$1:$L$90,M92,$F:$F)+SUMIF($M$1:$M$90,M92,$F:$F)</f>
         <v>60</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="3">
-        <v>44295.958489155091</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1035</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="3">
-        <v>44295.960083020836</v>
-      </c>
-      <c r="D88" s="3">
-        <v>44297.879144583334</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" s="1">
-        <v>90</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H88" s="1">
-        <v>120</v>
-      </c>
-      <c r="I88" s="2" t="s">
+      <c r="M92" t="s">
+        <v>243</v>
+      </c>
+      <c r="N92" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="O92" s="1">
+        <f>L92</f>
         <v>60</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" s="3">
-        <v>44295.962614259261</v>
-      </c>
-      <c r="D89" s="3">
-        <v>44297.879165208331</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F89" s="1">
-        <v>90</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H89" s="1">
-        <v>120</v>
-      </c>
-      <c r="I89" s="2" t="s">
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L93" s="1">
+        <f>SUMIF($L$1:$L$90,M93,$F:$F)+SUMIF($M$1:$M$90,M93,$F:$F)</f>
         <v>60</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="M93" t="s">
+        <v>215</v>
+      </c>
+      <c r="N93" s="1">
+        <v>22.96</v>
+      </c>
+      <c r="O93" s="1">
+        <f>L93</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L94" s="1">
+        <f>SUMIF($L$1:$L$90,M94,$F:$F)+SUMIF($M$1:$M$90,M94,$F:$F)</f>
+        <v>191</v>
+      </c>
+      <c r="M94" t="s">
+        <v>244</v>
+      </c>
+      <c r="N94" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="O94" s="1">
+        <f>L94</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L95" s="1">
+        <f>SUMIF($L$1:$L$90,M95,$F:$F)+SUMIF($M$1:$M$90,M95,$F:$F)</f>
+        <v>300</v>
+      </c>
+      <c r="M95" t="s">
+        <v>240</v>
+      </c>
+      <c r="N95" s="1">
+        <v>15.58</v>
+      </c>
+      <c r="O95" s="1">
+        <f>L95</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L96" s="1">
+        <f>SUMIF($L$1:$L$90,M96,$F:$F)+SUMIF($M$1:$M$90,M96,$F:$F)</f>
+        <v>310</v>
+      </c>
+      <c r="M96" t="s">
+        <v>247</v>
+      </c>
+      <c r="N96" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="O96" s="1">
+        <f>L96</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L97" s="1">
+        <f>SUMIF($L$1:$L$90,M97,$F:$F)+SUMIF($M$1:$M$90,M97,$F:$F)</f>
+        <v>786</v>
+      </c>
+      <c r="M97" t="s">
+        <v>242</v>
+      </c>
+      <c r="N97" s="4">
+        <v>18.04</v>
+      </c>
+      <c r="O97" s="1">
+        <f>L97</f>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="98" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L98" s="1">
+        <f>SUMIF($L$1:$L$90,M98,$F:$F)+SUMIF($M$1:$M$90,M98,$F:$F)</f>
+        <v>1067</v>
+      </c>
+      <c r="M98" t="s">
+        <v>241</v>
+      </c>
+      <c r="N98" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="O98" s="1">
+        <f>L98</f>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="99" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L99" s="1">
+        <f>SUMIF($L$1:$L$90,M99,$F:$F)+SUMIF($M$1:$M$90,M99,$F:$F)</f>
+        <v>1175</v>
+      </c>
+      <c r="M99" t="s">
+        <v>237</v>
+      </c>
+      <c r="N99" s="1">
+        <v>19.68</v>
+      </c>
+      <c r="O99" s="1">
+        <f>L99</f>
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="100" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L100" s="1">
+        <f>SUMIF($L$1:$L$90,M100,$F:$F)+SUMIF($M$1:$M$90,M100,$F:$F)</f>
+        <v>1941</v>
+      </c>
+      <c r="M100" t="s">
+        <v>238</v>
+      </c>
+      <c r="N100" s="1">
+        <v>30.34</v>
+      </c>
+      <c r="O100" s="1">
+        <f>L100</f>
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="101" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L101" s="1">
+        <f>SUMIF($L$1:$L$90,M101,$F:$F)+SUMIF($M$1:$M$90,M101,$F:$F)</f>
+        <v>1965</v>
+      </c>
+      <c r="M101" t="s">
         <v>239</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90" s="3">
-        <v>44119.559387349538</v>
-      </c>
-      <c r="D90" s="3">
-        <v>44131.42994303241</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="1">
-        <v>120</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H90" s="1">
-        <v>60</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C91" s="3">
-        <v>44119.559700231483</v>
-      </c>
-      <c r="D91" s="3">
-        <v>44131.430193541666</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F91" s="1">
-        <v>360</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H91" s="1">
-        <v>300</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C92" s="3">
-        <v>44119.5614240625</v>
-      </c>
-      <c r="D92" s="3">
-        <v>44131.428346678244</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="1">
-        <v>60</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H92" s="1">
-        <v>180</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C93" s="3">
-        <v>44119.564633263886</v>
-      </c>
-      <c r="D93" s="3">
-        <v>44131.426537777777</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="1">
-        <v>60</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H93" s="1">
-        <v>180</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C94" s="3">
-        <v>44131.437531875003</v>
-      </c>
-      <c r="D94" s="3">
-        <v>44139.941010879629</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H94" s="1">
-        <v>300</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C95" s="3">
-        <v>44119.548866145837</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1615</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H95" s="1">
-        <v>2280</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="3">
-        <v>44119.558677997687</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1680</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" s="1">
-        <v>1830</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L98" s="1">
-        <f>SUMIF($L$1:$L$97,M98,$F:$F)+SUMIF($M$1:$M$97,M98,$F:$F)</f>
-        <v>3801</v>
-      </c>
-      <c r="M98" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L99" s="1">
-        <f t="shared" ref="L99:L108" si="0">SUMIF($L$1:$L$97,M99,$F:$F)+SUMIF($M$1:$M$97,M99,$F:$F)</f>
+      <c r="N101" s="1">
+        <v>15.58</v>
+      </c>
+      <c r="O101" s="1">
+        <f>L101</f>
         <v>1965</v>
       </c>
-      <c r="M99" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L100" s="1">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L101" s="1">
-        <f t="shared" si="0"/>
-        <v>2210</v>
-      </c>
-      <c r="M101" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L102" s="1">
-        <f t="shared" si="0"/>
-        <v>7174</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="103" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L103" s="1">
-        <f t="shared" si="0"/>
-        <v>1335</v>
-      </c>
-      <c r="M103" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="104" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L104" s="1">
-        <f t="shared" si="0"/>
-        <v>191</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="105" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L105" s="1">
-        <f t="shared" si="0"/>
-        <v>786</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="106" spans="12:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="L106" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="M106" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="107" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L107" s="1">
-        <f t="shared" si="0"/>
-        <v>2499</v>
-      </c>
-      <c r="M107" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="108" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L108" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="M108" s="4" t="s">
-        <v>232</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="L91:O101">
+    <sortCondition ref="L91:L101"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794FE68B-1CA8-446A-903C-77C4A37736C6}">
+  <dimension ref="C4:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6">
+        <v>9.02</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7">
+        <v>13.94</v>
+      </c>
+      <c r="E7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8">
+        <v>15.58</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9">
+        <v>13.94</v>
+      </c>
+      <c r="E9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10">
+        <v>18.04</v>
+      </c>
+      <c r="E10">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11">
+        <v>13.94</v>
+      </c>
+      <c r="E11">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12">
+        <v>19.68</v>
+      </c>
+      <c r="E12">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13">
+        <v>30.34</v>
+      </c>
+      <c r="E13">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>191</v>
+      </c>
+      <c r="E20">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>300</v>
+      </c>
+      <c r="E21">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>310</v>
+      </c>
+      <c r="E22">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>786</v>
+      </c>
+      <c r="E23">
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1067</v>
+      </c>
+      <c r="E24">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1175</v>
+      </c>
+      <c r="E25">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1941</v>
+      </c>
+      <c r="E26">
+        <v>30.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>